--- a/biology/Botanique/Cuviera/Cuviera.xlsx
+++ b/biology/Botanique/Cuviera/Cuviera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cuviera est un genre de plantes de la famille des Rubiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (14 février 2018)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (14 février 2018) :
 Cuviera acutiflora DC.
 Cuviera angolensis Welw. ex K.Schum.
 Cuviera calycosa Wernham
@@ -558,7 +574,7 @@
 Cuviera tomentosa Verdc.
 Cuviera trilocularis Hiern
 Cuviera truncata Hutch. &amp; Dalziel
-Selon NCBI  (14 février 2018)[3] :
+Selon NCBI  (14 février 2018) :
 Cuviera acutiflora
 Cuviera angolensis
 sous-espèce Cuviera angolensis subsp. latior
@@ -568,7 +584,7 @@
 Cuviera semseii
 Cuviera subuliflora
 Cuviera trilocularis
-Selon The Plant List            (14 février 2018)[4] :
+Selon The Plant List            (14 février 2018) :
 Cuviera acutiflora DC.
 Cuviera bolo Aubrév. &amp; Pellegr.
 Cuviera calycosa Wernham
